--- a/files/LakeName_ZooSize.xlsx
+++ b/files/LakeName_ZooSize.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosalie Bruel\Documents\Postdoc_Rosalie_iEES\gleonzoosizedatacall2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosalie Bruel\Documents\Postdoc_Rosalie_iEES\Script R\rosaliebruelweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55E842-9392-487E-8D2A-A7CE1DAA3692}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238177D2-4B36-4CEE-8573-A64CA58D49A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1913,8 +1913,8 @@
   </sheetPr>
   <dimension ref="A1:K959"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5227,7 +5227,7 @@
       <c r="A959" s="50"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" sqref="E14" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"wet,dry,NA"</formula1>
     </dataValidation>
@@ -5246,6 +5246,9 @@
     <dataValidation type="list" allowBlank="1" sqref="E15" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"NF,NC,NT,NW,NH,TH,SH,SW,ST"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G22" xr:uid="{0669D87A-D33D-4026-8397-D985DC974DCA}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -5261,8 +5264,8 @@
   </sheetPr>
   <dimension ref="A1:K976"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8778,12 +8781,15 @@
       <c r="A976" s="50"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="E11:H11 E22:H23" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="E12:H12" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"none,low,high,unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J28" xr:uid="{AB1BD158-8A24-4CD4-BBCC-AA4D57C95D72}">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
